--- a/excel/colaboradores.xlsx
+++ b/excel/colaboradores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>data_nascimento</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cpf</t>
+          <t>cep</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>data_nascimento</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>endereco</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>uf</t>
         </is>
@@ -496,30 +481,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>melissalopes@example.net</t>
+          <t>24/04/1974</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>847.210.695-02</t>
+          <t>27275674</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>24/04/1974</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Lagoa de Rodrigues, 62 Zilah Sposito 37328-273 Castro Paulista</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>27275674</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -541,30 +511,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pcunha@example.net</t>
+          <t>10/07/1994</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>820.415.963-33</t>
+          <t>50013962</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>10/07/1994</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Ladeira de Moreira, 82 Jardim Atlântico 27617-762 Sales Verde</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>50013962</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
@@ -586,30 +541,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aragaonicolas@example.net</t>
+          <t>18/12/1986</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>936.172.548-37</t>
+          <t>08955215</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>18/12/1986</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Área Sophie Moreira Maria Virgínia 71941-111 Souza do Campo</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>08955215</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -631,30 +571,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>luiz-otaviorezende@example.org</t>
+          <t>19/10/1994</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>967.082.451-67</t>
+          <t>24224305</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>19/10/1994</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Trevo Murilo Ramos, 92 São Benedito 73615-597 Moura da Mata</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>24224305</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>RR</t>
         </is>
@@ -676,30 +601,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joao-pedro72@example.com</t>
+          <t>01/03/1996</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>857.496.210-49</t>
+          <t>96896390</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>01/03/1996</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Parque de Moura, 65 Granja Werneck 67769059 da Rosa de da Cunha</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>96896390</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>RR</t>
         </is>
@@ -721,30 +631,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sabrina59@example.com</t>
+          <t>30/01/1966</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>190.768.435-20</t>
+          <t>90019993</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>30/01/1966</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Favela Rocha, 94 Laranjeiras 92500120 Viana</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>90019993</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -766,30 +661,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>lviana@example.org</t>
+          <t>07/02/1977</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>217.583.096-95</t>
+          <t>19415341</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>07/02/1977</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Lagoa Benício Moura, 5 Vila Paraíso 50235854 da Conceição</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>19415341</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -811,30 +691,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>noahmoraes@example.com</t>
+          <t>24/03/1975</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>062.937.158-02</t>
+          <t>74890752</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>24/03/1975</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Colônia Lima, 83 Flamengo 36172-665 da Mota</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>74890752</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -856,30 +721,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vjesus@example.org</t>
+          <t>21/12/1963</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>718.950.436-20</t>
+          <t>29604844</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>21/12/1963</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Conjunto Gomes, 888 Céu Azul 76308-427 Lopes do Norte</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>29604844</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -901,30 +751,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>samuel76@example.com</t>
+          <t>16/07/1977</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>768.134.950-20</t>
+          <t>88161168</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>16/07/1977</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Fazenda Emilly Costa Campo Alegre 55916-800 da Cunha de Rocha</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>88161168</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -946,30 +781,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>davi-luccacardoso@example.org</t>
+          <t>13/09/1985</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>461.837.095-57</t>
+          <t>73793541</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>13/09/1985</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Viaduto Rezende, 33 Beira Linha 94699659 Fogaça do Oeste</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>73793541</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -991,30 +811,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>thales22@example.com</t>
+          <t>15/06/1975</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>265.931.407-16</t>
+          <t>85994735</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>15/06/1975</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Travessa Araújo Flamengo 90045246 Dias</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>85994735</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -1036,30 +841,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>zmelo@example.com</t>
+          <t>28/10/1983</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>260.431.897-04</t>
+          <t>53119377</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>28/10/1983</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Vale de Ribeiro, 6 Vera Cruz 77263-255 Lopes Verde</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>53119377</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -1081,30 +871,15 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>freitascaroline@example.com</t>
+          <t>03/03/1985</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>053.126.487-44</t>
+          <t>95399857</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>03/03/1985</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Pátio Aragão, 171 Califórnia 42079209 da Rosa Grande</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>95399857</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
@@ -1126,30 +901,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>diaslucas@example.org</t>
+          <t>14/10/1976</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>269.580.741-49</t>
+          <t>07868885</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>14/10/1976</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Sítio da Paz, 94 Conjunto Jatoba 59169-769 Nogueira</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>07868885</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
@@ -1171,30 +931,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>oviana@example.com</t>
+          <t>23/03/1991</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>196.574.038-39</t>
+          <t>98758451</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>23/03/1991</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Chácara de Pereira, 148 Etelvina Carneiro 74386-933 das Neves</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>98758451</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1216,30 +961,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>antoniomonteiro@example.org</t>
+          <t>08/10/1990</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>928.706.341-96</t>
+          <t>48143984</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>08/10/1990</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Área Enrico Caldeira, 9 Santa Cecilia 37808172 Rocha da Prata</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>48143984</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
@@ -1261,30 +991,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>das-nevesmaria-fernanda@example.org</t>
+          <t>21/02/1966</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>697.351.804-48</t>
+          <t>04775545</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>21/02/1966</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Área de da Cunha, 52 Pantanal 27949-577 Barros</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>04775545</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
@@ -1306,30 +1021,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>davi-luiz75@example.net</t>
+          <t>28/05/1990</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>538.697.210-30</t>
+          <t>95994401</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>28/05/1990</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Avenida Barros, 820 Vila Puc 71371716 da Paz</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>95994401</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -1351,30 +1051,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jalves@example.org</t>
+          <t>27/11/1985</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>734.206.859-47</t>
+          <t>71279339</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>27/11/1985</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Trecho Teixeira, 90 Vila Oeste 93070-834 Moraes Paulista</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>71279339</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -1396,30 +1081,15 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>laispeixoto@example.org</t>
+          <t>12/06/1978</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>104.263.875-62</t>
+          <t>51569010</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>12/06/1978</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Loteamento de Peixoto, 42 Aparecida 7ª Seção 72660123 Nunes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>51569010</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -1441,30 +1111,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>heitor34@example.org</t>
+          <t>13/11/1968</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>279.438.056-74</t>
+          <t>74002728</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>13/11/1968</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Praia Daniela Nunes, 10 Vila Trinta E Um De Março 92370116 Silva Grande</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>74002728</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
@@ -1486,30 +1141,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>barbara58@example.com</t>
+          <t>09/04/1970</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>814.096.532-42</t>
+          <t>36777821</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>09/04/1970</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Fazenda de Pinto, 27 Pirineus 57057184 da Paz</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>36777821</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -1531,30 +1171,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rodriguesolivia@example.net</t>
+          <t>03/06/1974</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>934.210.785-05</t>
+          <t>26210551</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>03/06/1974</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Alameda de Fogaça, 60 Araguaia 33543-326 Moraes de Santos</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>26210551</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
@@ -1576,30 +1201,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>henriqueda-luz@example.com</t>
+          <t>16/07/1963</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>503.247.891-14</t>
+          <t>42103068</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>16/07/1963</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Ladeira de Porto, 9 Distrito Industrial Do Jatoba 71922-717 Lima de Souza</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>42103068</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -1621,30 +1231,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>pauloribeiro@example.org</t>
+          <t>07/12/1991</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>305.687.219-77</t>
+          <t>12941395</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>07/12/1991</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Fazenda Pedro Miguel Vieira, 714 São Salvador 88997-693 Viana da Mata</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>12941395</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>RR</t>
         </is>
@@ -1666,30 +1261,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>leticia48@example.org</t>
+          <t>07/01/1979</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>192.058.346-70</t>
+          <t>60281719</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>07/01/1979</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Loteamento de Fogaça, 485 Vila Fumec 29814669 Gonçalves do Oeste</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>60281719</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -1711,30 +1291,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>emanuella17@example.net</t>
+          <t>23/04/1985</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>784.290.531-23</t>
+          <t>16683185</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>23/04/1985</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Ladeira de Viana, 1 Conjunto Capitão Eduardo 97321062 Dias</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>16683185</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
@@ -1756,30 +1321,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>pedro-miguelda-rocha@example.org</t>
+          <t>13/11/1967</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>097.435.216-07</t>
+          <t>62738233</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>13/11/1967</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Loteamento Monteiro Conjunto Bonsucesso 77655-152 Nogueira de Minas</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>62738233</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
@@ -1801,30 +1351,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>luiz-gustavo49@example.org</t>
+          <t>15/02/1990</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>652.307.918-02</t>
+          <t>75913235</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>15/02/1990</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Lago Costela, 31 Conjunto Santa Maria 75957-012 Azevedo</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>75913235</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -1846,30 +1381,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>icarvalho@example.com</t>
+          <t>14/10/1962</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>627.134.095-43</t>
+          <t>98839500</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>14/10/1962</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Passarela Natália da Rosa, 24 São Pedro 65884-698 Rocha da Praia</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>98839500</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -1891,30 +1411,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>diogo68@example.org</t>
+          <t>31/03/1985</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>136.078.249-40</t>
+          <t>92408486</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>31/03/1985</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Sítio Pereira, 2 Baleia 52815-925 da Cruz</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>92408486</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
@@ -1936,30 +1441,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>martinsmarcos-vinicius@example.net</t>
+          <t>25/04/1991</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>126.749.853-64</t>
+          <t>57387761</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>25/04/1991</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Colônia de da Luz, 258 Vila Santo Antônio Barroquinha 53260-352 Farias</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>57387761</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
@@ -1981,30 +1471,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>oviana@example.org</t>
+          <t>28/12/1973</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>381.657.092-59</t>
+          <t>16596292</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>28/12/1973</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Conjunto Alves, 8 Santa Amelia 36469-502 da Mota do Amparo</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>16596292</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
@@ -2026,30 +1501,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>correialivia@example.net</t>
+          <t>15/09/1975</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>297.634.180-03</t>
+          <t>96322716</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>15/09/1975</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Praia Marina Monteiro, 29 Vila São Francisco 58603414 Vieira da Serra</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>96322716</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -2071,30 +1531,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>asilva@example.com</t>
+          <t>19/05/1980</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>137.405.962-52</t>
+          <t>71170459</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>19/05/1980</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Setor de Oliveira, 8 Teixeira Dias 68695-507 Costela</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>71170459</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -2116,30 +1561,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>caldeiragiovanna@example.org</t>
+          <t>05/10/1986</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>714.309.582-60</t>
+          <t>26544466</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>05/10/1986</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Trevo de Cavalcanti, 9 Renascença 86582782 Lima do Campo</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>26544466</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -2161,30 +1591,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rodrigo08@example.org</t>
+          <t>06/03/1964</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>825.140.697-85</t>
+          <t>36787854</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>06/03/1964</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Trecho de da Paz, 27 Conjunto Taquaril 72170-264 Pinto</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>36787854</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -2206,30 +1621,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>almeidacaroline@example.net</t>
+          <t>24/12/1963</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>047.836.592-65</t>
+          <t>29043497</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t>24/12/1963</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Setor Thiago da Rocha, 9 Independência 55260-908 Santos da Prata</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>29043497</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -2251,30 +1651,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>maria91@example.com</t>
+          <t>08/05/1976</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>059.817.632-21</t>
+          <t>52447374</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>08/05/1976</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Avenida Melo, 40 Estrela Do Oriente 56389266 da Luz do Oeste</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>52447374</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -2296,30 +1681,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>camposgiovanna@example.org</t>
+          <t>15/02/1981</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>761.038.529-86</t>
+          <t>83417203</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>15/02/1981</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Condomínio Mirella da Conceição, 19 Petropolis 14916934 Lopes</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>83417203</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -2341,30 +1711,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vitoriagomes@example.org</t>
+          <t>08/05/1981</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>291.847.506-85</t>
+          <t>74407700</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>08/05/1981</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Favela de Oliveira, 514 Vila Nova Gameleira 3ª Seção 04170-829 Teixeira do Campo</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>74407700</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
@@ -2386,30 +1741,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>isisda-paz@example.org</t>
+          <t>19/06/1969</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>187.053.296-12</t>
+          <t>75796270</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>19/06/1969</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pátio Silveira, 48 Concórdia 02998-381 Moraes</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>75796270</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -2431,30 +1771,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>milena41@example.net</t>
+          <t>13/04/1964</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>942.718.605-49</t>
+          <t>96640825</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t>13/04/1964</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Distrito Enrico Souza, 9 Vila Novo São Lucas 51945-621 Gonçalves de Cunha</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>96640825</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -2476,30 +1801,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>da-rochagustavo@example.com</t>
+          <t>19/12/1982</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>961.452.703-06</t>
+          <t>54656513</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>19/12/1982</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Lagoa de Costa, 96 Conjunto Minas Caixa 87681-170 da Rosa</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>54656513</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -2521,30 +1831,15 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>pteixeira@example.com</t>
+          <t>13/05/1970</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>768.541.203-90</t>
+          <t>68997717</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>13/05/1970</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Largo Nogueira, 59 Conjunto Bonsucesso 43484658 Porto Paulista</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>68997717</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -2566,30 +1861,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>araujoana-vitoria@example.net</t>
+          <t>04/07/1981</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>813.769.540-01</t>
+          <t>75795729</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>04/07/1981</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Condomínio Araújo Vera Cruz 78170-346 da Paz da Serra</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>75795729</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -2611,30 +1891,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>pedro-henrique56@example.org</t>
+          <t>13/06/1989</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>572.340.961-16</t>
+          <t>92847600</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>13/06/1989</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Campo Bruno Melo, 3 São Jorge 1ª Seção 04133-564 Araújo de Pires</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>92847600</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -2656,30 +1921,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>wmoura@example.org</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>534.062.971-61</t>
+          <t>64363566</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>30/10/1997</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Alameda de Aragão, 5 Monte Azul 28055-168 Jesus</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>64363566</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -2701,30 +1951,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joaquim97@example.org</t>
+          <t>16/01/1980</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>057.264.198-20</t>
+          <t>69196806</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t>16/01/1980</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Travessa Vitor Gabriel Silveira, 20 Granja Werneck 96535821 das Neves da Mata</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>69196806</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2746,30 +1981,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>wcampos@example.org</t>
+          <t>03/12/1993</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>176.084.239-78</t>
+          <t>61301741</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>03/12/1993</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Vale de Costa, 62 Acaiaca 71168-130 Gonçalves da Praia</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>61301741</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
@@ -2791,30 +2011,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>pedro-henrique82@example.com</t>
+          <t>19/09/1964</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>495.278.610-20</t>
+          <t>23821831</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>19/09/1964</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Núcleo Emanuella Jesus, 621 Vila Jardim Montanhes 66803663 Pires do Campo</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>23821831</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>RR</t>
         </is>
@@ -2836,30 +2041,15 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>stephanypeixoto@example.net</t>
+          <t>10/11/1991</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>027.619.358-02</t>
+          <t>28501411</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>10/11/1991</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Distrito Pinto Liberdade 55152-938 Nascimento</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>28501411</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
@@ -2881,30 +2071,15 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cavalcantithomas@example.org</t>
+          <t>09/10/1967</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>403.527.198-50</t>
+          <t>42832180</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>09/10/1967</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Favela de Cunha, 84 Jardim América 28360-153 da Costa do Campo</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>42832180</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -2926,30 +2101,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>da-luzcarolina@example.com</t>
+          <t>04/11/1993</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>149.853.026-51</t>
+          <t>41497222</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
-        <is>
-          <t>04/11/1993</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Esplanada de da Conceição, 52 Satelite 42238-305 Cavalcanti</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>41497222</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -2971,30 +2131,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>arthur02@example.net</t>
+          <t>13/07/1967</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>385.049.162-51</t>
+          <t>08566439</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>13/07/1967</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Colônia Thomas Viana, 918 Marajó 70771-248 Duarte</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>08566439</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -3016,30 +2161,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>silveiradaniela@example.org</t>
+          <t>21/10/1965</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>461.203.589-51</t>
+          <t>65408812</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>21/10/1965</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Rodovia de Nogueira, 37 União 95858-378 das Neves</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>65408812</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -3061,30 +2191,15 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>costajoao-miguel@example.net</t>
+          <t>22/04/1969</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>897.605.341-93</t>
+          <t>21980775</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>22/04/1969</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Vereda Freitas, 46 Minas Brasil 80891-631 da Mata</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>21980775</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
@@ -3106,30 +2221,15 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vitor-hugosales@example.org</t>
+          <t>24/03/1973</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>390.752.168-40</t>
+          <t>03927555</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
-        <is>
-          <t>24/03/1973</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Chácara de Barbosa, 29 Engenho Nogueira 03345703 Cunha do Oeste</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>03927555</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -3151,30 +2251,15 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>leandro34@example.net</t>
+          <t>23/02/1993</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>965.832.147-09</t>
+          <t>50769513</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t>23/02/1993</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Morro de Souza, 84 Distrito Industrial Do Jatoba 67203-288 da Mota</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>50769513</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
@@ -3196,30 +2281,15 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>carlos-eduardo92@example.com</t>
+          <t>25/10/1978</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>031.248.796-78</t>
+          <t>94709044</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t>25/10/1978</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Lagoa de da Mata, 20 Silveira 49023-064 Rocha do Sul</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>94709044</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -3241,30 +2311,15 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>lrezende@example.org</t>
+          <t>06/02/1977</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>264.875.013-44</t>
+          <t>12204328</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t>06/02/1977</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Parque de Silveira, 66 Vila Da Luz 09881-664 Jesus</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>12204328</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -3286,30 +2341,15 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>osilveira@example.net</t>
+          <t>24/11/1963</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>492.758.103-97</t>
+          <t>15164977</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
-        <is>
-          <t>24/11/1963</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Praça de Duarte, 5 Santa Rosa 84418424 Cardoso de Carvalho</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>15164977</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
@@ -3331,30 +2371,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>qjesus@example.net</t>
+          <t>16/08/1988</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>579.816.234-64</t>
+          <t>12605284</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t>16/08/1988</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Campo João Barros, 99 Providencia 47135-118 Melo de Lima</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>12605284</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
@@ -3376,30 +2401,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>emilly44@example.com</t>
+          <t>02/09/1995</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>790.245.683-74</t>
+          <t>97215561</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>02/09/1995</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Largo de das Neves, 1 Nova Esperança 60391950 Monteiro de da Rocha</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>97215561</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
@@ -3421,30 +2431,15 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>enzo-gabrielduarte@example.com</t>
+          <t>30/03/1970</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>263.589.174-55</t>
+          <t>92857785</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t>30/03/1970</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Lago Evelyn Teixeira, 7 Pantanal 68026-096 Carvalho</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>92857785</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -3466,30 +2461,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>igornovaes@example.net</t>
+          <t>10/09/1994</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>396.071.582-02</t>
+          <t>92465328</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>10/09/1994</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Ladeira da Costa, 86 Conjunto Bonsucesso 59864-562 Porto de Barros</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>92465328</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
@@ -3511,30 +2491,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>valentinada-rocha@example.net</t>
+          <t>01/04/1969</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>367.528.901-02</t>
+          <t>77896815</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>01/04/1969</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Sítio Maria Eduarda Pires, 8 Antonio Ribeiro De Abreu 1ª Seção 50991-334 Nogueira da Prata</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>77896815</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
@@ -3556,30 +2521,15 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kgomes@example.com</t>
+          <t>22/08/1975</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>047.931.256-70</t>
+          <t>79262228</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t>22/08/1975</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Rodovia Leonardo da Cunha, 135 Ventosa 29667758 Moreira do Norte</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>79262228</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
@@ -3601,30 +2551,15 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ncosta@example.net</t>
+          <t>10/10/1991</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>578.310.962-21</t>
+          <t>47431701</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t>10/10/1991</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Fazenda Peixoto, 68 Marieta 3ª Seção 99059-719 Porto</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>47431701</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
@@ -3646,30 +2581,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>noahcastro@example.org</t>
+          <t>10/11/1993</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>091.367.842-22</t>
+          <t>05165716</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
-        <is>
-          <t>10/11/1993</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Recanto Nogueira, 3 Xangri-Lá 38163250 Vieira de Mendes</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>05165716</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -3691,30 +2611,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>paulo12@example.org</t>
+          <t>01/06/1974</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>714.695.380-75</t>
+          <t>22588498</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
-        <is>
-          <t>01/06/1974</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Parque Lima, 3 Europa 70881-379 Cunha</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>22588498</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
@@ -3736,30 +2641,15 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>luiz-felipefarias@example.org</t>
+          <t>31/01/1996</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>843.201.579-23</t>
+          <t>69097997</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
-        <is>
-          <t>31/01/1996</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Vereda da Rocha, 240 Vila Aeroporto 10668-659 Caldeira</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>69097997</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
@@ -3781,30 +2671,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>luiza18@example.net</t>
+          <t>24/04/1973</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>241.395.068-06</t>
+          <t>04555518</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
-        <is>
-          <t>24/04/1973</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Passarela de Peixoto Distrito Industrial Do Jatoba 34288-743 da Mata Paulista</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>04555518</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -3826,30 +2701,15 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ianviana@example.net</t>
+          <t>16/11/1978</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>452.389.017-04</t>
+          <t>71636333</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
-        <is>
-          <t>16/11/1978</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Trevo Bruno Azevedo Engenho Nogueira 17313-814 Porto de Goiás</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>71636333</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -3871,30 +2731,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>pedro-henrique85@example.com</t>
+          <t>16/05/1997</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>205.719.486-85</t>
+          <t>79292091</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
-        <is>
-          <t>16/05/1997</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Conjunto de Nascimento, 138 Marçola 26018227 Viana</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>79292091</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
@@ -3916,30 +2761,15 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>livia08@example.net</t>
+          <t>13/04/1997</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>672.598.143-73</t>
+          <t>53778703</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t>13/04/1997</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Condomínio Isabelly Cunha, 30 Prado 78943472 Rezende</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>53778703</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
         <is>
           <t>PR</t>
         </is>
@@ -3961,30 +2791,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>csilva@example.net</t>
+          <t>11/07/1973</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>853.624.091-15</t>
+          <t>66925534</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t>11/07/1973</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Jardim da Luz, 96 Rio Branco 42420423 da Mata</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>66925534</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
@@ -4006,30 +2821,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>gustavo-henriquecastro@example.com</t>
+          <t>06/08/1977</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>725.083.916-03</t>
+          <t>36084897</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t>06/08/1977</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Travessa Laura Monteiro, 7 Grota 92672446 Porto</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>36084897</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
@@ -4051,30 +2851,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vcavalcanti@example.net</t>
+          <t>27/04/1963</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>526.984.013-89</t>
+          <t>03745319</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>27/04/1963</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Recanto Nina da Costa Vila Santa Monica 1ª Seção 23645052 Castro de Fernandes</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>03745319</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
@@ -4096,30 +2881,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>lorena19@example.com</t>
+          <t>22/02/1994</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>945.218.603-89</t>
+          <t>33395564</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t>22/02/1994</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Vale Rezende, 4 São Geraldo 84460438 da Conceição de Sales</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>33395564</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -4141,30 +2911,15 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vitor-hugoribeiro@example.net</t>
+          <t>13/07/1978</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>283.076.541-90</t>
+          <t>01114589</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
-        <is>
-          <t>13/07/1978</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Ladeira de Nascimento, 359 Salgado Filho 60868-929 da Rosa</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>01114589</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
@@ -4186,30 +2941,15 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>fernando53@example.org</t>
+          <t>12/09/1976</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>369.428.710-87</t>
+          <t>83982409</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>12/09/1976</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Favela Barros, 28 Nazare 98329-395 Caldeira do Norte</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>83982409</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -4231,30 +2971,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>kda-cunha@example.com</t>
+          <t>24/12/1970</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>823.456.790-00</t>
+          <t>87312248</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
-        <is>
-          <t>24/12/1970</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Trecho de Duarte, 903 Leticia 22951015 Nascimento</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>87312248</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
         <is>
           <t>RR</t>
         </is>
@@ -4276,30 +3001,15 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>barbarapereira@example.net</t>
+          <t>09/09/1980</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>395.814.270-23</t>
+          <t>48093646</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>09/09/1980</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Campo de Silveira, 36 Bernadete 75409639 Barbosa</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>48093646</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -4321,30 +3031,15 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>samuel34@example.org</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>403.762.985-29</t>
+          <t>53544065</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
-        <is>
-          <t>06/04/1998</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Viaduto Cunha, 3 Minas Brasil 94652281 Nascimento do Oeste</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>53544065</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -4366,30 +3061,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>sophie99@example.net</t>
+          <t>08/03/1977</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>749.536.012-70</t>
+          <t>80265890</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t>08/03/1977</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Conjunto Melo, 64 Vila Nova Gameleira 3ª Seção 99419458 Duarte Alegre</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>80265890</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4411,30 +3091,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rezendemarcela@example.org</t>
+          <t>22/07/1996</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>627.401.395-43</t>
+          <t>73390636</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>22/07/1996</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Feira de Melo, 95 Bom Jesus 02499-885 Jesus</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>73390636</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -4456,30 +3121,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ida-costa@example.org</t>
+          <t>10/09/1987</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>486.321.970-96</t>
+          <t>73404769</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>10/09/1987</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Recanto Duarte Vila Mangueiras 08038-110 Araújo</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>73404769</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
@@ -4501,30 +3151,15 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>pedro82@example.net</t>
+          <t>18/09/1993</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>643.508.219-70</t>
+          <t>24300799</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>18/09/1993</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Conjunto Sofia Azevedo, 44 Ipe 31209677 Costela de Araújo</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>24300799</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
@@ -4546,30 +3181,15 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>erodrigues@example.net</t>
+          <t>21/05/1968</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>480.756.921-01</t>
+          <t>92472266</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t>21/05/1968</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Esplanada de Almeida, 720 Manacas 89334474 Cardoso de Cunha</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>92472266</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
@@ -4591,30 +3211,15 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>estherdias@example.com</t>
+          <t>27/02/1992</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>953.124.067-16</t>
+          <t>73034259</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>27/02/1992</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Praça Novaes, 93 Sion 55659988 Souza dos Dourados</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>73034259</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -4636,30 +3241,15 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>milena37@example.net</t>
+          <t>23/09/1986</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>182.045.369-33</t>
+          <t>12951292</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t>23/09/1986</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Vale Marcos Vinicius Duarte, 302 Vila Paris 03560827 Moura</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>12951292</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>PR</t>
         </is>
@@ -4681,30 +3271,15 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>silveiraalicia@example.net</t>
+          <t>18/08/1966</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805.124.379-04</t>
+          <t>79567620</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t>18/08/1966</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Rodovia Igor Moura, 41 Atila De Paiva 22036-616 Pereira</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>79567620</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -4726,30 +3301,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>gomesmanuela@example.org</t>
+          <t>18/05/1982</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>309.764.251-06</t>
+          <t>52427851</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>18/05/1982</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Trevo de Duarte Nossa Senhora Do Rosário 41440886 Rezende</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>52427851</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -4771,30 +3331,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>caldeirasamuel@example.com</t>
+          <t>09/01/1971</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>825.670.139-03</t>
+          <t>66939843</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>09/01/1971</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Largo de Pinto, 96 Vila Independencia 2ª Seção 38053880 da Mota do Amparo</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>66939843</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -4816,30 +3361,15 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>olivia97@example.org</t>
+          <t>12/01/1992</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>719.360.824-03</t>
+          <t>42178150</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t>12/01/1992</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Aeroporto Maria Cecília Rocha, 39 Serra Do Curral 08025-854 Cardoso da Praia</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>42178150</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
@@ -4861,30 +3391,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>lorena74@example.org</t>
+          <t>01/12/1995</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>956.104.283-51</t>
+          <t>40016475</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>01/12/1995</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Rua de da Mota, 7 Vila Mantiqueira 17429735 Jesus</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>40016475</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
@@ -4906,30 +3421,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>mcosta@example.com</t>
+          <t>14/05/1963</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>139.467.025-70</t>
+          <t>66423556</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t>14/05/1963</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Avenida de Campos, 513 Tres Marias 67624232 Correia</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>66423556</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
@@ -4951,30 +3451,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>giovannacavalcanti@example.net</t>
+          <t>03/11/1989</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>342.506.918-70</t>
+          <t>59741896</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
-        <is>
-          <t>03/11/1989</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Estação de Rezende, 33 Vila Betânia 65202-821 Silva</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>59741896</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
